--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0717054620894296</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H2">
-        <v>0.0717054620894296</v>
+        <v>0.23378</v>
       </c>
       <c r="I2">
-        <v>0.02699147358152731</v>
+        <v>0.02262292700786823</v>
       </c>
       <c r="J2">
-        <v>0.02699147358152731</v>
+        <v>0.03335630044983492</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N2">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O2">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P2">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q2">
-        <v>11.75022801012011</v>
+        <v>12.76968494827667</v>
       </c>
       <c r="R2">
-        <v>11.75022801012011</v>
+        <v>76.61810968966</v>
       </c>
       <c r="S2">
-        <v>0.01188436801110597</v>
+        <v>0.009849978166904819</v>
       </c>
       <c r="T2">
-        <v>0.01188436801110597</v>
+        <v>0.01173870870079011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0717054620894296</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H3">
-        <v>0.0717054620894296</v>
+        <v>0.23378</v>
       </c>
       <c r="I3">
-        <v>0.02699147358152731</v>
+        <v>0.02262292700786823</v>
       </c>
       <c r="J3">
-        <v>0.02699147358152731</v>
+        <v>0.03335630044983492</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N3">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O3">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P3">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q3">
-        <v>1.153860551611415</v>
+        <v>1.30972018836</v>
       </c>
       <c r="R3">
-        <v>1.153860551611415</v>
+        <v>11.78748169524</v>
       </c>
       <c r="S3">
-        <v>0.00116703296455501</v>
+        <v>0.001010261044994809</v>
       </c>
       <c r="T3">
-        <v>0.00116703296455501</v>
+        <v>0.001805967472922288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0717054620894296</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H4">
-        <v>0.0717054620894296</v>
+        <v>0.23378</v>
       </c>
       <c r="I4">
-        <v>0.02699147358152731</v>
+        <v>0.02262292700786823</v>
       </c>
       <c r="J4">
-        <v>0.02699147358152731</v>
+        <v>0.03335630044983492</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N4">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O4">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P4">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q4">
-        <v>2.151245945176746</v>
+        <v>2.443265457131111</v>
       </c>
       <c r="R4">
-        <v>2.151245945176746</v>
+        <v>21.98938911418</v>
       </c>
       <c r="S4">
-        <v>0.002175804458676084</v>
+        <v>0.001884628438851344</v>
       </c>
       <c r="T4">
-        <v>0.002175804458676084</v>
+        <v>0.00336900811525137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0717054620894296</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H5">
-        <v>0.0717054620894296</v>
+        <v>0.23378</v>
       </c>
       <c r="I5">
-        <v>0.02699147358152731</v>
+        <v>0.02262292700786823</v>
       </c>
       <c r="J5">
-        <v>0.02699147358152731</v>
+        <v>0.03335630044983492</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N5">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O5">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P5">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q5">
-        <v>2.500539396872507</v>
+        <v>2.769556463122222</v>
       </c>
       <c r="R5">
-        <v>2.500539396872507</v>
+        <v>24.92600816809999</v>
       </c>
       <c r="S5">
-        <v>0.002529085426521699</v>
+        <v>0.002136315093462474</v>
       </c>
       <c r="T5">
-        <v>0.002529085426521699</v>
+        <v>0.00381892936466336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0717054620894296</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H6">
-        <v>0.0717054620894296</v>
+        <v>0.23378</v>
       </c>
       <c r="I6">
-        <v>0.02699147358152731</v>
+        <v>0.02262292700786823</v>
       </c>
       <c r="J6">
-        <v>0.02699147358152731</v>
+        <v>0.03335630044983492</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N6">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O6">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P6">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q6">
-        <v>6.715335803210614</v>
+        <v>7.391709263913333</v>
       </c>
       <c r="R6">
-        <v>6.715335803210614</v>
+        <v>66.52538337522</v>
       </c>
       <c r="S6">
-        <v>0.006791997732705704</v>
+        <v>0.005701642222228847</v>
       </c>
       <c r="T6">
-        <v>0.006791997732705704</v>
+        <v>0.01019239576404588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0717054620894296</v>
+        <v>0.07792666666666666</v>
       </c>
       <c r="H7">
-        <v>0.0717054620894296</v>
+        <v>0.23378</v>
       </c>
       <c r="I7">
-        <v>0.02699147358152731</v>
+        <v>0.02262292700786823</v>
       </c>
       <c r="J7">
-        <v>0.02699147358152731</v>
+        <v>0.03335630044983492</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.687929125754</v>
+        <v>33.9399115</v>
       </c>
       <c r="N7">
-        <v>33.687929125754</v>
+        <v>67.879823</v>
       </c>
       <c r="O7">
-        <v>0.09051691752149957</v>
+        <v>0.0901785184877445</v>
       </c>
       <c r="P7">
-        <v>0.09051691752149957</v>
+        <v>0.07288850979797275</v>
       </c>
       <c r="Q7">
-        <v>2.415608524798145</v>
+        <v>2.644824170156666</v>
       </c>
       <c r="R7">
-        <v>2.415608524798145</v>
+        <v>15.86894502094</v>
       </c>
       <c r="S7">
-        <v>0.002443184987962842</v>
+        <v>0.00204010204142594</v>
       </c>
       <c r="T7">
-        <v>0.002443184987962842</v>
+        <v>0.002431291032161916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.58489132848017</v>
+        <v>0.041468</v>
       </c>
       <c r="H8">
-        <v>2.58489132848017</v>
+        <v>0.124404</v>
       </c>
       <c r="I8">
-        <v>0.9730085264184727</v>
+        <v>0.01203859445413141</v>
       </c>
       <c r="J8">
-        <v>0.9730085264184727</v>
+        <v>0.01775026606707701</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>163.867963021638</v>
+        <v>163.8679735</v>
       </c>
       <c r="N8">
-        <v>163.867963021638</v>
+        <v>327.735947</v>
       </c>
       <c r="O8">
-        <v>0.4403008222285246</v>
+        <v>0.4353980439170849</v>
       </c>
       <c r="P8">
-        <v>0.4403008222285246</v>
+        <v>0.3519187842322066</v>
       </c>
       <c r="Q8">
-        <v>423.5808766303412</v>
+        <v>6.795277125098</v>
       </c>
       <c r="R8">
-        <v>423.5808766303412</v>
+        <v>40.771662750588</v>
       </c>
       <c r="S8">
-        <v>0.4284164542174186</v>
+        <v>0.005241580476839881</v>
       </c>
       <c r="T8">
-        <v>0.4284164542174186</v>
+        <v>0.006246652054123935</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.58489132848017</v>
+        <v>0.041468</v>
       </c>
       <c r="H9">
-        <v>2.58489132848017</v>
+        <v>0.124404</v>
       </c>
       <c r="I9">
-        <v>0.9730085264184727</v>
+        <v>0.01203859445413141</v>
       </c>
       <c r="J9">
-        <v>0.9730085264184727</v>
+        <v>0.01775026606707701</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0916688629988</v>
+        <v>16.807086</v>
       </c>
       <c r="N9">
-        <v>16.0916688629988</v>
+        <v>50.42125799999999</v>
       </c>
       <c r="O9">
-        <v>0.04323709711624325</v>
+        <v>0.04465651348490144</v>
       </c>
       <c r="P9">
-        <v>0.04323709711624325</v>
+        <v>0.05414171981207304</v>
       </c>
       <c r="Q9">
-        <v>41.59521530473996</v>
+        <v>0.6969562422479999</v>
       </c>
       <c r="R9">
-        <v>41.59521530473996</v>
+        <v>6.272606180232</v>
       </c>
       <c r="S9">
-        <v>0.04207006415168824</v>
+        <v>0.0005376016555801789</v>
       </c>
       <c r="T9">
-        <v>0.04207006415168824</v>
+        <v>0.0009610299319934314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.58489132848017</v>
+        <v>0.041468</v>
       </c>
       <c r="H10">
-        <v>2.58489132848017</v>
+        <v>0.124404</v>
       </c>
       <c r="I10">
-        <v>0.9730085264184727</v>
+        <v>0.01203859445413141</v>
       </c>
       <c r="J10">
-        <v>0.9730085264184727</v>
+        <v>0.01775026606707701</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.001144717452</v>
+        <v>31.35339366666667</v>
       </c>
       <c r="N10">
-        <v>30.001144717452</v>
+        <v>94.060181</v>
       </c>
       <c r="O10">
-        <v>0.08061080667211819</v>
+        <v>0.08330612737228353</v>
       </c>
       <c r="P10">
-        <v>0.08061080667211819</v>
+        <v>0.1010006526448602</v>
       </c>
       <c r="Q10">
-        <v>77.54969882462034</v>
+        <v>1.300162528569333</v>
       </c>
       <c r="R10">
-        <v>77.54969882462034</v>
+        <v>11.701462757124</v>
       </c>
       <c r="S10">
-        <v>0.0784350022134421</v>
+        <v>0.001002888682979137</v>
       </c>
       <c r="T10">
-        <v>0.0784350022134421</v>
+        <v>0.001792788457394694</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.58489132848017</v>
+        <v>0.041468</v>
       </c>
       <c r="H11">
-        <v>2.58489132848017</v>
+        <v>0.124404</v>
       </c>
       <c r="I11">
-        <v>0.9730085264184727</v>
+        <v>0.01203859445413141</v>
       </c>
       <c r="J11">
-        <v>0.9730085264184727</v>
+        <v>0.01775026606707701</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.8723698866048</v>
+        <v>35.54054833333333</v>
       </c>
       <c r="N11">
-        <v>34.8723698866048</v>
+        <v>106.621645</v>
       </c>
       <c r="O11">
-        <v>0.09369942025886943</v>
+        <v>0.09443141874256437</v>
       </c>
       <c r="P11">
-        <v>0.09369942025886943</v>
+        <v>0.1144889964762942</v>
       </c>
       <c r="Q11">
-        <v>90.14128652343776</v>
+        <v>1.473795458286666</v>
       </c>
       <c r="R11">
-        <v>90.14128652343776</v>
+        <v>13.26415912458</v>
       </c>
       <c r="S11">
-        <v>0.09117033483234774</v>
+        <v>0.001136821553969996</v>
       </c>
       <c r="T11">
-        <v>0.09117033483234774</v>
+        <v>0.002032210149206864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.58489132848017</v>
+        <v>0.041468</v>
       </c>
       <c r="H12">
-        <v>2.58489132848017</v>
+        <v>0.124404</v>
       </c>
       <c r="I12">
-        <v>0.9730085264184727</v>
+        <v>0.01203859445413141</v>
       </c>
       <c r="J12">
-        <v>0.9730085264184727</v>
+        <v>0.01775026606707701</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.6516634511801</v>
+        <v>94.85468300000001</v>
       </c>
       <c r="N12">
-        <v>93.6516634511801</v>
+        <v>284.564049</v>
       </c>
       <c r="O12">
-        <v>0.251634936202745</v>
+        <v>0.2520293779954212</v>
       </c>
       <c r="P12">
-        <v>0.251634936202745</v>
+        <v>0.3055613370365933</v>
       </c>
       <c r="Q12">
-        <v>242.0793727526987</v>
+        <v>3.933433994644</v>
       </c>
       <c r="R12">
-        <v>242.0793727526987</v>
+        <v>35.400905951796</v>
       </c>
       <c r="S12">
-        <v>0.2448429384700393</v>
+        <v>0.003034079472213866</v>
       </c>
       <c r="T12">
-        <v>0.2448429384700393</v>
+        <v>0.005423795032211324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.041468</v>
+      </c>
+      <c r="H13">
+        <v>0.124404</v>
+      </c>
+      <c r="I13">
+        <v>0.01203859445413141</v>
+      </c>
+      <c r="J13">
+        <v>0.01775026606707701</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.9399115</v>
+      </c>
+      <c r="N13">
+        <v>67.879823</v>
+      </c>
+      <c r="O13">
+        <v>0.0901785184877445</v>
+      </c>
+      <c r="P13">
+        <v>0.07288850979797275</v>
+      </c>
+      <c r="Q13">
+        <v>1.407420250082</v>
+      </c>
+      <c r="R13">
+        <v>8.444521500492</v>
+      </c>
+      <c r="S13">
+        <v>0.001085622612548347</v>
+      </c>
+      <c r="T13">
+        <v>0.001293790442146766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.3251935</v>
+      </c>
+      <c r="H14">
+        <v>6.650386999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.9653384785380004</v>
+      </c>
+      <c r="J14">
+        <v>0.9488934334830881</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>163.8679735</v>
+      </c>
+      <c r="N14">
+        <v>327.735947</v>
+      </c>
+      <c r="O14">
+        <v>0.4353980439170849</v>
+      </c>
+      <c r="P14">
+        <v>0.3519187842322066</v>
+      </c>
+      <c r="Q14">
+        <v>544.8927203403722</v>
+      </c>
+      <c r="R14">
+        <v>2179.570881361489</v>
+      </c>
+      <c r="S14">
+        <v>0.4203064852733402</v>
+      </c>
+      <c r="T14">
+        <v>0.3339334234772926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.3251935</v>
+      </c>
+      <c r="H15">
+        <v>6.650386999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.9653384785380004</v>
+      </c>
+      <c r="J15">
+        <v>0.9488934334830881</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.807086</v>
+      </c>
+      <c r="N15">
+        <v>50.42125799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.04465651348490144</v>
+      </c>
+      <c r="P15">
+        <v>0.05414171981207304</v>
+      </c>
+      <c r="Q15">
+        <v>55.88681312114099</v>
+      </c>
+      <c r="R15">
+        <v>335.3208787268459</v>
+      </c>
+      <c r="S15">
+        <v>0.04310865078432646</v>
+      </c>
+      <c r="T15">
+        <v>0.05137472240715732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.3251935</v>
+      </c>
+      <c r="H16">
+        <v>6.650386999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.9653384785380004</v>
+      </c>
+      <c r="J16">
+        <v>0.9488934334830881</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>31.35339366666667</v>
+      </c>
+      <c r="N16">
+        <v>94.060181</v>
+      </c>
+      <c r="O16">
+        <v>0.08330612737228353</v>
+      </c>
+      <c r="P16">
+        <v>0.1010006526448602</v>
+      </c>
+      <c r="Q16">
+        <v>104.2561008233412</v>
+      </c>
+      <c r="R16">
+        <v>625.5366049400469</v>
+      </c>
+      <c r="S16">
+        <v>0.08041861025045305</v>
+      </c>
+      <c r="T16">
+        <v>0.0958388560722141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.3251935</v>
+      </c>
+      <c r="H17">
+        <v>6.650386999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.9653384785380004</v>
+      </c>
+      <c r="J17">
+        <v>0.9488934334830881</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>35.54054833333333</v>
+      </c>
+      <c r="N17">
+        <v>106.621645</v>
+      </c>
+      <c r="O17">
+        <v>0.09443141874256437</v>
+      </c>
+      <c r="P17">
+        <v>0.1144889964762942</v>
+      </c>
+      <c r="Q17">
+        <v>118.1792003044358</v>
+      </c>
+      <c r="R17">
+        <v>709.0752018266148</v>
+      </c>
+      <c r="S17">
+        <v>0.09115828209513191</v>
+      </c>
+      <c r="T17">
+        <v>0.1086378569624239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.58489132848017</v>
-      </c>
-      <c r="H13">
-        <v>2.58489132848017</v>
-      </c>
-      <c r="I13">
-        <v>0.9730085264184727</v>
-      </c>
-      <c r="J13">
-        <v>0.9730085264184727</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>33.687929125754</v>
-      </c>
-      <c r="N13">
-        <v>33.687929125754</v>
-      </c>
-      <c r="O13">
-        <v>0.09051691752149957</v>
-      </c>
-      <c r="P13">
-        <v>0.09051691752149957</v>
-      </c>
-      <c r="Q13">
-        <v>87.07963587161608</v>
-      </c>
-      <c r="R13">
-        <v>87.07963587161608</v>
-      </c>
-      <c r="S13">
-        <v>0.08807373253353673</v>
-      </c>
-      <c r="T13">
-        <v>0.08807373253353673</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.3251935</v>
+      </c>
+      <c r="H18">
+        <v>6.650386999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.9653384785380004</v>
+      </c>
+      <c r="J18">
+        <v>0.9488934334830881</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>94.85468300000001</v>
+      </c>
+      <c r="N18">
+        <v>284.564049</v>
+      </c>
+      <c r="O18">
+        <v>0.2520293779954212</v>
+      </c>
+      <c r="P18">
+        <v>0.3055613370365933</v>
+      </c>
+      <c r="Q18">
+        <v>315.4101753561605</v>
+      </c>
+      <c r="R18">
+        <v>1892.461052136963</v>
+      </c>
+      <c r="S18">
+        <v>0.2432936563009785</v>
+      </c>
+      <c r="T18">
+        <v>0.2899451462403361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.3251935</v>
+      </c>
+      <c r="H19">
+        <v>6.650386999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.9653384785380004</v>
+      </c>
+      <c r="J19">
+        <v>0.9488934334830881</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>33.9399115</v>
+      </c>
+      <c r="N19">
+        <v>67.879823</v>
+      </c>
+      <c r="O19">
+        <v>0.0901785184877445</v>
+      </c>
+      <c r="P19">
+        <v>0.07288850979797275</v>
+      </c>
+      <c r="Q19">
+        <v>112.8567731103752</v>
+      </c>
+      <c r="R19">
+        <v>451.427092441501</v>
+      </c>
+      <c r="S19">
+        <v>0.08705279383377021</v>
+      </c>
+      <c r="T19">
+        <v>0.06916342832366407</v>
       </c>
     </row>
   </sheetData>
